--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_18_2.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_18_2.xlsx
@@ -518,1376 +518,1376 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_18_2_0</t>
+          <t>model_18_2_12</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999728478387738</v>
+        <v>0.9999674344715328</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9990820442023921</v>
+        <v>0.9989400190852257</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999603176313457</v>
+        <v>0.9996709151721419</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999250214996096</v>
+        <v>0.9998774408632327</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999382809812731</v>
+        <v>0.9998735135838555</v>
       </c>
       <c r="G2" t="n">
-        <v>2.534535066253363e-05</v>
+        <v>3.039849136261971e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0008568714434643396</v>
+        <v>0.0009894456561571146</v>
       </c>
       <c r="I2" t="n">
-        <v>1.820229341777514e-05</v>
+        <v>0.0001449372279336253</v>
       </c>
       <c r="J2" t="n">
-        <v>6.749475874645029e-05</v>
+        <v>4.505334288757915e-05</v>
       </c>
       <c r="K2" t="n">
-        <v>4.284852608211271e-05</v>
+        <v>9.499528541060221e-05</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0004862357925229087</v>
+        <v>0.000349036811621329</v>
       </c>
       <c r="M2" t="n">
-        <v>0.005034416615908305</v>
+        <v>0.005513482689065026</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000050127066879</v>
+        <v>1.000060120975632</v>
       </c>
       <c r="O2" t="n">
-        <v>0.005248742153926607</v>
+        <v>0.005748203061621094</v>
       </c>
       <c r="P2" t="n">
-        <v>95.1658305011304</v>
+        <v>94.80223515402628</v>
       </c>
       <c r="Q2" t="n">
-        <v>140.2642360212538</v>
+        <v>139.9006406741497</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_18_2_1</t>
+          <t>model_18_2_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999753806276713</v>
+        <v>0.9999674344715328</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9990786031731327</v>
+        <v>0.9989400190852257</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999518115429807</v>
+        <v>0.9996709151721419</v>
       </c>
       <c r="E3" t="n">
-        <v>0.999931392217609</v>
+        <v>0.9998774408632327</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999396011829307</v>
+        <v>0.9998735135838555</v>
       </c>
       <c r="G3" t="n">
-        <v>2.298110340330207e-05</v>
+        <v>3.039849136261971e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0008600834932343196</v>
+        <v>0.0009894456561571146</v>
       </c>
       <c r="I3" t="n">
-        <v>2.210403420357456e-05</v>
+        <v>0.0001449372279336253</v>
       </c>
       <c r="J3" t="n">
-        <v>6.175991379531611e-05</v>
+        <v>4.505334288757915e-05</v>
       </c>
       <c r="K3" t="n">
-        <v>4.193197399944534e-05</v>
+        <v>9.499528541060221e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0004545588707973628</v>
+        <v>0.000349036811621329</v>
       </c>
       <c r="M3" t="n">
-        <v>0.004793861012096833</v>
+        <v>0.005513482689065026</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000045451148915</v>
+        <v>1.000060120975632</v>
       </c>
       <c r="O3" t="n">
-        <v>0.004997945600042132</v>
+        <v>0.005748203061621094</v>
       </c>
       <c r="P3" t="n">
-        <v>95.36167654177379</v>
+        <v>94.80223515402628</v>
       </c>
       <c r="Q3" t="n">
-        <v>140.4600820618972</v>
+        <v>139.9006406741497</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_18_2_2</t>
+          <t>model_18_2_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999771957491552</v>
+        <v>0.9999674344715328</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9990748562903068</v>
+        <v>0.9989400190852257</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999418898109327</v>
+        <v>0.9996709151721419</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999363276491791</v>
+        <v>0.9998774408632327</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999395232003017</v>
+        <v>0.9998735135838555</v>
       </c>
       <c r="G4" t="n">
-        <v>2.128676717268034e-05</v>
+        <v>3.039849136261971e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0008635810438830927</v>
+        <v>0.0009894456561571146</v>
       </c>
       <c r="I4" t="n">
-        <v>2.66551304228007e-05</v>
+        <v>0.0001449372279336253</v>
       </c>
       <c r="J4" t="n">
-        <v>5.731709670237711e-05</v>
+        <v>4.505334288757915e-05</v>
       </c>
       <c r="K4" t="n">
-        <v>4.198611356258891e-05</v>
+        <v>9.499528541060221e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0004366030325522654</v>
+        <v>0.000349036811621329</v>
       </c>
       <c r="M4" t="n">
-        <v>0.004613758464926435</v>
+        <v>0.005513482689065026</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000042100155406</v>
+        <v>1.000060120975632</v>
       </c>
       <c r="O4" t="n">
-        <v>0.004810175714575021</v>
+        <v>0.005748203061621094</v>
       </c>
       <c r="P4" t="n">
-        <v>95.51484987561824</v>
+        <v>94.80223515402628</v>
       </c>
       <c r="Q4" t="n">
-        <v>140.6132553957416</v>
+        <v>139.9006406741497</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_18_2_3</t>
+          <t>model_18_2_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999784487882477</v>
+        <v>0.9999674344715328</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9990708172979844</v>
+        <v>0.9989400190852257</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999311188943317</v>
+        <v>0.9996709151721419</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999400334651256</v>
+        <v>0.9998774408632327</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999383675059018</v>
+        <v>0.9998735135838555</v>
       </c>
       <c r="G5" t="n">
-        <v>2.011711018189205e-05</v>
+        <v>3.039849136261971e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0008673512659247943</v>
+        <v>0.0009894456561571146</v>
       </c>
       <c r="I5" t="n">
-        <v>3.159574740202397e-05</v>
+        <v>0.0001449372279336253</v>
       </c>
       <c r="J5" t="n">
-        <v>5.39811650423612e-05</v>
+        <v>4.505334288757915e-05</v>
       </c>
       <c r="K5" t="n">
-        <v>4.278845622219259e-05</v>
+        <v>9.499528541060221e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0004215583201399901</v>
+        <v>0.000349036811621329</v>
       </c>
       <c r="M5" t="n">
-        <v>0.004485210160281461</v>
+        <v>0.005513482689065026</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000039786852466</v>
+        <v>1.000060120975632</v>
       </c>
       <c r="O5" t="n">
-        <v>0.004676154842469636</v>
+        <v>0.005748203061621094</v>
       </c>
       <c r="P5" t="n">
-        <v>95.62787970435801</v>
+        <v>94.80223515402628</v>
       </c>
       <c r="Q5" t="n">
-        <v>140.7262852244814</v>
+        <v>139.9006406741497</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_18_2_4</t>
+          <t>model_18_2_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999792153425573</v>
+        <v>0.9999674344715328</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9990667083705014</v>
+        <v>0.9989400190852257</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999198373029153</v>
+        <v>0.9996709151721419</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999426227773757</v>
+        <v>0.9998774408632327</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999363174038448</v>
+        <v>0.9998735135838555</v>
       </c>
       <c r="G6" t="n">
-        <v>1.940156538170309e-05</v>
+        <v>3.039849136261971e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0008711867693691816</v>
+        <v>0.0009894456561571146</v>
       </c>
       <c r="I6" t="n">
-        <v>3.67706108021632e-05</v>
+        <v>0.0001449372279336253</v>
       </c>
       <c r="J6" t="n">
-        <v>5.165029679715231e-05</v>
+        <v>4.505334288757915e-05</v>
       </c>
       <c r="K6" t="n">
-        <v>4.42117428082822e-05</v>
+        <v>9.499528541060221e-05</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0004078996588483522</v>
+        <v>0.000349036811621329</v>
       </c>
       <c r="M6" t="n">
-        <v>0.004404720806328488</v>
+        <v>0.005513482689065026</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000038371675279</v>
+        <v>1.000060120975632</v>
       </c>
       <c r="O6" t="n">
-        <v>0.004592238890082953</v>
+        <v>0.005748203061621094</v>
       </c>
       <c r="P6" t="n">
-        <v>95.70031361074345</v>
+        <v>94.80223515402628</v>
       </c>
       <c r="Q6" t="n">
-        <v>140.7987191308669</v>
+        <v>139.9006406741497</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_18_2_5</t>
+          <t>model_18_2_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999796055186246</v>
+        <v>0.9999674344715328</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9990625675790181</v>
+        <v>0.9989400190852257</v>
       </c>
       <c r="D7" t="n">
-        <v>0.999908403314705</v>
+        <v>0.9996709151721419</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999442924113541</v>
+        <v>0.9998774408632327</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999336244283209</v>
+        <v>0.9998735135838555</v>
       </c>
       <c r="G7" t="n">
-        <v>1.903735314961726e-05</v>
+        <v>3.039849136261971e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0008750520164590701</v>
+        <v>0.0009894456561571146</v>
       </c>
       <c r="I7" t="n">
-        <v>4.201537857682304e-05</v>
+        <v>0.0001449372279336253</v>
       </c>
       <c r="J7" t="n">
-        <v>5.014731204844134e-05</v>
+        <v>4.505334288757915e-05</v>
       </c>
       <c r="K7" t="n">
-        <v>4.608134531263219e-05</v>
+        <v>9.499528541060221e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0003954665671243681</v>
+        <v>0.000349036811621329</v>
       </c>
       <c r="M7" t="n">
-        <v>0.004363181539841915</v>
+        <v>0.005513482689065026</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000037651350231</v>
+        <v>1.000060120975632</v>
       </c>
       <c r="O7" t="n">
-        <v>0.00454893121102391</v>
+        <v>0.005748203061621094</v>
       </c>
       <c r="P7" t="n">
-        <v>95.73821510703152</v>
+        <v>94.80223515402628</v>
       </c>
       <c r="Q7" t="n">
-        <v>140.836620627155</v>
+        <v>139.9006406741497</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_18_2_6</t>
+          <t>model_18_2_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999796992346972</v>
+        <v>0.9999674344715328</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9990584948250384</v>
+        <v>0.9989400190852257</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9998970313803014</v>
+        <v>0.9996709151721419</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999452311581415</v>
+        <v>0.9998774408632327</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9999304762504098</v>
+        <v>0.9998735135838555</v>
       </c>
       <c r="G8" t="n">
-        <v>1.894987330953563e-05</v>
+        <v>3.039849136261971e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0008788537535258449</v>
+        <v>0.0009894456561571146</v>
       </c>
       <c r="I8" t="n">
-        <v>4.723168228454717e-05</v>
+        <v>0.0001449372279336253</v>
       </c>
       <c r="J8" t="n">
-        <v>4.930226329964613e-05</v>
+        <v>4.505334288757915e-05</v>
       </c>
       <c r="K8" t="n">
-        <v>4.826697279209665e-05</v>
+        <v>9.499528541060221e-05</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0003841918062625776</v>
+        <v>0.000349036811621329</v>
       </c>
       <c r="M8" t="n">
-        <v>0.004353145220359141</v>
+        <v>0.005513482689065026</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000037478335944</v>
+        <v>1.000060120975632</v>
       </c>
       <c r="O8" t="n">
-        <v>0.004538467624642709</v>
+        <v>0.005748203061621094</v>
       </c>
       <c r="P8" t="n">
-        <v>95.74742662394164</v>
+        <v>94.80223515402628</v>
       </c>
       <c r="Q8" t="n">
-        <v>140.8458321440651</v>
+        <v>139.9006406741497</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_18_2_7</t>
+          <t>model_18_2_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999795751417473</v>
+        <v>0.9999674344715328</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9990545528938274</v>
+        <v>0.9989400190852257</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9998859640767802</v>
+        <v>0.9996709151721419</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9999455783827189</v>
+        <v>0.9998774408632327</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9999270452159736</v>
+        <v>0.9998735135838555</v>
       </c>
       <c r="G9" t="n">
-        <v>1.906570863120032e-05</v>
+        <v>3.039849136261971e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.000882533373280583</v>
+        <v>0.0009894456561571146</v>
       </c>
       <c r="I9" t="n">
-        <v>5.230825187619749e-05</v>
+        <v>0.0001449372279336253</v>
       </c>
       <c r="J9" t="n">
-        <v>4.898969584412259e-05</v>
+        <v>4.505334288757915e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>5.064897386016004e-05</v>
+        <v>9.499528541060221e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0003739050534938086</v>
+        <v>0.000349036811621329</v>
       </c>
       <c r="M9" t="n">
-        <v>0.004366429735058188</v>
+        <v>0.005513482689065026</v>
       </c>
       <c r="N9" t="n">
-        <v>1.00003770743062</v>
+        <v>1.000060120975632</v>
       </c>
       <c r="O9" t="n">
-        <v>0.004552317688635231</v>
+        <v>0.005748203061621094</v>
       </c>
       <c r="P9" t="n">
-        <v>95.7352383922488</v>
+        <v>94.80223515402628</v>
       </c>
       <c r="Q9" t="n">
-        <v>140.8336439123722</v>
+        <v>139.9006406741497</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_18_2_8</t>
+          <t>model_18_2_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999792916243704</v>
+        <v>0.9999674344715328</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9990507761313516</v>
+        <v>0.9989400190852257</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9998753134586904</v>
+        <v>0.9996709151721419</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999454975797579</v>
+        <v>0.9998774408632327</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9999234743389938</v>
+        <v>0.9998735135838555</v>
       </c>
       <c r="G10" t="n">
-        <v>1.933035965765267e-05</v>
+        <v>3.039849136261971e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0008860588152710041</v>
+        <v>0.0009894456561571146</v>
       </c>
       <c r="I10" t="n">
-        <v>5.719368795588407e-05</v>
+        <v>0.0001449372279336253</v>
       </c>
       <c r="J10" t="n">
-        <v>4.906243371342061e-05</v>
+        <v>4.505334288757915e-05</v>
       </c>
       <c r="K10" t="n">
-        <v>5.312806083465234e-05</v>
+        <v>9.499528541060221e-05</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0003689231764906927</v>
+        <v>0.000349036811621329</v>
       </c>
       <c r="M10" t="n">
-        <v>0.00439663048909647</v>
+        <v>0.005513482689065026</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000038230847316</v>
+        <v>1.000060120975632</v>
       </c>
       <c r="O10" t="n">
-        <v>0.004583804151297102</v>
+        <v>0.005748203061621094</v>
       </c>
       <c r="P10" t="n">
-        <v>95.70766731745425</v>
+        <v>94.80223515402628</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.8060728375777</v>
+        <v>139.9006406741497</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_18_2_9</t>
+          <t>model_18_2_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999788930557924</v>
+        <v>0.9999674344715328</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9990471895486517</v>
+        <v>0.9989400190852257</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9998651937837963</v>
+        <v>0.9996709151721419</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9999450762037048</v>
+        <v>0.9998774408632327</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9999198580632372</v>
+        <v>0.9998735135838555</v>
       </c>
       <c r="G11" t="n">
-        <v>1.970240593010007e-05</v>
+        <v>3.039849136261971e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0008894067327885801</v>
+        <v>0.0009894456561571146</v>
       </c>
       <c r="I11" t="n">
-        <v>6.18355805132292e-05</v>
+        <v>0.0001449372279336253</v>
       </c>
       <c r="J11" t="n">
-        <v>4.944175144982906e-05</v>
+        <v>4.505334288757915e-05</v>
       </c>
       <c r="K11" t="n">
-        <v>5.563866598152913e-05</v>
+        <v>9.499528541060221e-05</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0003646509673970732</v>
+        <v>0.000349036811621329</v>
       </c>
       <c r="M11" t="n">
-        <v>0.004438739227539738</v>
+        <v>0.005513482689065026</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000038966666229</v>
+        <v>1.000060120975632</v>
       </c>
       <c r="O11" t="n">
-        <v>0.004627705545913006</v>
+        <v>0.005748203061621094</v>
       </c>
       <c r="P11" t="n">
-        <v>95.66953960249185</v>
+        <v>94.80223515402628</v>
       </c>
       <c r="Q11" t="n">
-        <v>140.7679451226153</v>
+        <v>139.9006406741497</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_18_2_10</t>
+          <t>model_18_2_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999784202323196</v>
+        <v>0.9999674344715328</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9990438133919889</v>
+        <v>0.9989400190852257</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9998556629956967</v>
+        <v>0.9996709151721419</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9999444211926444</v>
+        <v>0.9998774408632327</v>
       </c>
       <c r="F12" t="n">
-        <v>0.999916284860317</v>
+        <v>0.9998735135838555</v>
       </c>
       <c r="G12" t="n">
-        <v>2.014376588731546e-05</v>
+        <v>3.039849136261971e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0008925582268371865</v>
+        <v>0.0009894456561571146</v>
       </c>
       <c r="I12" t="n">
-        <v>6.620735083278207e-05</v>
+        <v>0.0001449372279336253</v>
       </c>
       <c r="J12" t="n">
-        <v>5.003138465488716e-05</v>
+        <v>4.505334288757915e-05</v>
       </c>
       <c r="K12" t="n">
-        <v>5.811936774383461e-05</v>
+        <v>9.499528541060221e-05</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0003607414191089991</v>
+        <v>0.000349036811621329</v>
       </c>
       <c r="M12" t="n">
-        <v>0.004488180687908572</v>
+        <v>0.005513482689065026</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000039839571102</v>
+        <v>1.000060120975632</v>
       </c>
       <c r="O12" t="n">
-        <v>0.004679251831607673</v>
+        <v>0.005748203061621094</v>
       </c>
       <c r="P12" t="n">
-        <v>95.62523140537192</v>
+        <v>94.80223515402628</v>
       </c>
       <c r="Q12" t="n">
-        <v>140.7236369254953</v>
+        <v>139.9006406741497</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_18_2_11</t>
+          <t>model_18_2_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999779010344572</v>
+        <v>0.9999674344715328</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9990406580186254</v>
+        <v>0.9989400190852257</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9998467635704184</v>
+        <v>0.9996709151721419</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9999435916271027</v>
+        <v>0.9998774408632327</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9999128070652485</v>
+        <v>0.9998735135838555</v>
       </c>
       <c r="G13" t="n">
-        <v>2.062841430181077e-05</v>
+        <v>3.039849136261971e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.00089550362936708</v>
+        <v>0.0009894456561571146</v>
       </c>
       <c r="I13" t="n">
-        <v>7.028951517075785e-05</v>
+        <v>0.0001449372279336253</v>
       </c>
       <c r="J13" t="n">
-        <v>5.077814973842879e-05</v>
+        <v>4.505334288757915e-05</v>
       </c>
       <c r="K13" t="n">
-        <v>6.053383245459332e-05</v>
+        <v>9.499528541060221e-05</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0003572186802387639</v>
+        <v>0.000349036811621329</v>
       </c>
       <c r="M13" t="n">
-        <v>0.004541851417848317</v>
+        <v>0.005513482689065026</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000040798090233</v>
+        <v>1.000060120975632</v>
       </c>
       <c r="O13" t="n">
-        <v>0.00473520743563468</v>
+        <v>0.005748203061621094</v>
       </c>
       <c r="P13" t="n">
-        <v>95.57768219507621</v>
+        <v>94.80223515402628</v>
       </c>
       <c r="Q13" t="n">
-        <v>140.6760877151996</v>
+        <v>139.9006406741497</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_18_2_12</t>
+          <t>model_18_2_24</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999773536277959</v>
+        <v>0.9999674344715328</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9990377253205943</v>
+        <v>0.9989400190852257</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9998384564085442</v>
+        <v>0.9996709151721419</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9999426499639007</v>
+        <v>0.9998774408632327</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9999094522530487</v>
+        <v>0.9998735135838555</v>
       </c>
       <c r="G14" t="n">
-        <v>2.113939439163799e-05</v>
+        <v>3.039849136261971e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0008982411742485723</v>
+        <v>0.0009894456561571146</v>
       </c>
       <c r="I14" t="n">
-        <v>7.410000842076293e-05</v>
+        <v>0.0001449372279336253</v>
       </c>
       <c r="J14" t="n">
-        <v>5.162582380902487e-05</v>
+        <v>4.505334288757915e-05</v>
       </c>
       <c r="K14" t="n">
-        <v>6.28629161148939e-05</v>
+        <v>9.499528541060221e-05</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0003589527291868132</v>
+        <v>0.000349036811621329</v>
       </c>
       <c r="M14" t="n">
-        <v>0.004597759714430277</v>
+        <v>0.005513482689065026</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000041808687146</v>
+        <v>1.000060120975632</v>
       </c>
       <c r="O14" t="n">
-        <v>0.004793495864148263</v>
+        <v>0.005748203061621094</v>
       </c>
       <c r="P14" t="n">
-        <v>95.52874445088511</v>
+        <v>94.80223515402628</v>
       </c>
       <c r="Q14" t="n">
-        <v>140.6271499710085</v>
+        <v>139.9006406741497</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_18_2_13</t>
+          <t>model_18_2_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999767986098581</v>
+        <v>0.9999674344715328</v>
       </c>
       <c r="C15" t="n">
-        <v>0.999035010272842</v>
+        <v>0.9989400190852257</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9998307458380377</v>
+        <v>0.9996709151721419</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9999416533075303</v>
+        <v>0.9998774408632327</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9999062588752133</v>
+        <v>0.9998735135838555</v>
       </c>
       <c r="G15" t="n">
-        <v>2.165747927417851e-05</v>
+        <v>3.039849136261971e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0009007755521484672</v>
+        <v>0.0009894456561571146</v>
       </c>
       <c r="I15" t="n">
-        <v>7.763684534702785e-05</v>
+        <v>0.0001449372279336253</v>
       </c>
       <c r="J15" t="n">
-        <v>5.252300207913335e-05</v>
+        <v>4.505334288757915e-05</v>
       </c>
       <c r="K15" t="n">
-        <v>6.50799237130806e-05</v>
+        <v>9.499528541060221e-05</v>
       </c>
       <c r="L15" t="n">
-        <v>0.000360477570550869</v>
+        <v>0.000349036811621329</v>
       </c>
       <c r="M15" t="n">
-        <v>0.004653759692353969</v>
+        <v>0.005513482689065026</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000042833335647</v>
+        <v>1.000060120975632</v>
       </c>
       <c r="O15" t="n">
-        <v>0.004851879877068102</v>
+        <v>0.005748203061621094</v>
       </c>
       <c r="P15" t="n">
-        <v>95.48031940032766</v>
+        <v>94.80223515402628</v>
       </c>
       <c r="Q15" t="n">
-        <v>140.5787249204511</v>
+        <v>139.9006406741497</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_18_2_14</t>
+          <t>model_18_2_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999762486351248</v>
+        <v>0.9999674344715328</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9990325013618873</v>
+        <v>0.9989400190852257</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9998236441215061</v>
+        <v>0.9996709151721419</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9999406313755262</v>
+        <v>0.9998774408632327</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9999032502491028</v>
+        <v>0.9998735135838555</v>
       </c>
       <c r="G16" t="n">
-        <v>2.217085654662834e-05</v>
+        <v>3.039849136261971e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0009031175103962466</v>
+        <v>0.0009894456561571146</v>
       </c>
       <c r="I16" t="n">
-        <v>8.089440109433887e-05</v>
+        <v>0.0001449372279336253</v>
       </c>
       <c r="J16" t="n">
-        <v>5.344293317552337e-05</v>
+        <v>4.505334288757915e-05</v>
       </c>
       <c r="K16" t="n">
-        <v>6.716866713493111e-05</v>
+        <v>9.499528541060221e-05</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0003618375852996644</v>
+        <v>0.000349036811621329</v>
       </c>
       <c r="M16" t="n">
-        <v>0.004708593903346129</v>
+        <v>0.005513482689065026</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000043848673616</v>
+        <v>1.000060120975632</v>
       </c>
       <c r="O16" t="n">
-        <v>0.004909048493944663</v>
+        <v>0.005748203061621094</v>
       </c>
       <c r="P16" t="n">
-        <v>95.43346379938187</v>
+        <v>94.80223515402628</v>
       </c>
       <c r="Q16" t="n">
-        <v>140.5318693195053</v>
+        <v>139.9006406741497</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_18_2_15</t>
+          <t>model_18_2_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999757101718719</v>
+        <v>0.9999674344715328</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9990301975898209</v>
+        <v>0.9989400190852257</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9998170964186384</v>
+        <v>0.9996709151721419</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999396024409511</v>
+        <v>0.9998774408632327</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9999004201046244</v>
+        <v>0.9998735135838555</v>
       </c>
       <c r="G17" t="n">
-        <v>2.267348835728214e-05</v>
+        <v>3.039849136261971e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0009052679804962798</v>
+        <v>0.0009894456561571146</v>
       </c>
       <c r="I17" t="n">
-        <v>8.389783090090365e-05</v>
+        <v>0.0001449372279336253</v>
       </c>
       <c r="J17" t="n">
-        <v>5.436916790342075e-05</v>
+        <v>4.505334288757915e-05</v>
       </c>
       <c r="K17" t="n">
-        <v>6.913349940216219e-05</v>
+        <v>9.499528541060221e-05</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0003630429360130718</v>
+        <v>0.000349036811621329</v>
       </c>
       <c r="M17" t="n">
-        <v>0.004761668652613508</v>
+        <v>0.005513482689065026</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000044842759621</v>
+        <v>1.000060120975632</v>
       </c>
       <c r="O17" t="n">
-        <v>0.004964382745168231</v>
+        <v>0.005748203061621094</v>
       </c>
       <c r="P17" t="n">
-        <v>95.38862845959163</v>
+        <v>94.80223515402628</v>
       </c>
       <c r="Q17" t="n">
-        <v>140.4870339797151</v>
+        <v>139.9006406741497</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_18_2_16</t>
+          <t>model_18_2_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999751932864583</v>
+        <v>0.9999674344715328</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9990280794573657</v>
+        <v>0.9989400190852257</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9998111005114095</v>
+        <v>0.9996709151721419</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9999385869925073</v>
+        <v>0.9998774408632327</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9998977809921853</v>
+        <v>0.9998735135838555</v>
       </c>
       <c r="G18" t="n">
-        <v>2.315597820230625e-05</v>
+        <v>3.039849136261971e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0009072451641679248</v>
+        <v>0.0009894456561571146</v>
       </c>
       <c r="I18" t="n">
-        <v>8.664815217421918e-05</v>
+        <v>0.0001449372279336253</v>
       </c>
       <c r="J18" t="n">
-        <v>5.528326257565652e-05</v>
+        <v>4.505334288757915e-05</v>
       </c>
       <c r="K18" t="n">
-        <v>7.096570737493785e-05</v>
+        <v>9.499528541060221e-05</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0003641115444476257</v>
+        <v>0.000349036811621329</v>
       </c>
       <c r="M18" t="n">
-        <v>0.004812065897544031</v>
+        <v>0.005513482689065026</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000045797009615</v>
+        <v>1.000060120975632</v>
       </c>
       <c r="O18" t="n">
-        <v>0.005016925505152127</v>
+        <v>0.005748203061621094</v>
       </c>
       <c r="P18" t="n">
-        <v>95.34651514617805</v>
+        <v>94.80223515402628</v>
       </c>
       <c r="Q18" t="n">
-        <v>140.4449206663015</v>
+        <v>139.9006406741497</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_18_2_17</t>
+          <t>model_18_2_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999747003759765</v>
+        <v>0.9999674344715328</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9990261404148989</v>
+        <v>0.9989400190852257</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9998056198757654</v>
+        <v>0.9996709151721419</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9999376042214746</v>
+        <v>0.9998774408632327</v>
       </c>
       <c r="F19" t="n">
-        <v>0.999895333287865</v>
+        <v>0.9998735135838555</v>
       </c>
       <c r="G19" t="n">
-        <v>2.361608850086973e-05</v>
+        <v>3.039849136261971e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0009090551751966544</v>
+        <v>0.0009894456561571146</v>
       </c>
       <c r="I19" t="n">
-        <v>8.916211848956903e-05</v>
+        <v>0.0001449372279336253</v>
       </c>
       <c r="J19" t="n">
-        <v>5.616794142910616e-05</v>
+        <v>4.505334288757915e-05</v>
       </c>
       <c r="K19" t="n">
-        <v>7.266502995933758e-05</v>
+        <v>9.499528541060221e-05</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0003650447966424495</v>
+        <v>0.000349036811621329</v>
       </c>
       <c r="M19" t="n">
-        <v>0.004859638721229154</v>
+        <v>0.005513482689065026</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000046706998197</v>
+        <v>1.000060120975632</v>
       </c>
       <c r="O19" t="n">
-        <v>0.005066523602430846</v>
+        <v>0.005748203061621094</v>
       </c>
       <c r="P19" t="n">
-        <v>95.30716472411412</v>
+        <v>94.80223515402628</v>
       </c>
       <c r="Q19" t="n">
-        <v>140.4055702442375</v>
+        <v>139.9006406741497</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_18_2_18</t>
+          <t>model_18_2_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999742338051612</v>
+        <v>0.9999674344715328</v>
       </c>
       <c r="C20" t="n">
-        <v>0.99902436959342</v>
+        <v>0.9989400190852257</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9998006046000023</v>
+        <v>0.9996709151721419</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9999366610282709</v>
+        <v>0.9998774408632327</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9998930649767017</v>
+        <v>0.9998735135838555</v>
       </c>
       <c r="G20" t="n">
-        <v>2.405161187687325e-05</v>
+        <v>3.039849136261971e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0009107081593170456</v>
+        <v>0.0009894456561571146</v>
       </c>
       <c r="I20" t="n">
-        <v>9.146262433400818e-05</v>
+        <v>0.0001449372279336253</v>
       </c>
       <c r="J20" t="n">
-        <v>5.701699278912773e-05</v>
+        <v>4.505334288757915e-05</v>
       </c>
       <c r="K20" t="n">
-        <v>7.423980856156797e-05</v>
+        <v>9.499528541060221e-05</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0003659004318410305</v>
+        <v>0.000349036811621329</v>
       </c>
       <c r="M20" t="n">
-        <v>0.004904244271737823</v>
+        <v>0.005513482689065026</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000047568359703</v>
+        <v>1.000060120975632</v>
       </c>
       <c r="O20" t="n">
-        <v>0.005113028103570887</v>
+        <v>0.005748203061621094</v>
       </c>
       <c r="P20" t="n">
-        <v>95.27061708350192</v>
+        <v>94.80223515402628</v>
       </c>
       <c r="Q20" t="n">
-        <v>140.3690226036254</v>
+        <v>139.9006406741497</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_18_2_19</t>
+          <t>model_18_2_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999737969384492</v>
+        <v>0.9999674344715328</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9990227518531387</v>
+        <v>0.9989400190852257</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9997960456258916</v>
+        <v>0.9996709151721419</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9999357657161784</v>
+        <v>0.9998774408632327</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9998909784494057</v>
+        <v>0.9998735135838555</v>
       </c>
       <c r="G21" t="n">
-        <v>2.4459407776175e-05</v>
+        <v>3.039849136261971e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0009122182488590412</v>
+        <v>0.0009894456561571146</v>
       </c>
       <c r="I21" t="n">
-        <v>9.355382471496433e-05</v>
+        <v>0.0001449372279336253</v>
       </c>
       <c r="J21" t="n">
-        <v>5.782294213962039e-05</v>
+        <v>4.505334288757915e-05</v>
       </c>
       <c r="K21" t="n">
-        <v>7.568838342729236e-05</v>
+        <v>9.499528541060221e-05</v>
       </c>
       <c r="L21" t="n">
-        <v>0.000366637265626747</v>
+        <v>0.000349036811621329</v>
       </c>
       <c r="M21" t="n">
-        <v>0.004945645334653002</v>
+        <v>0.005513482689065026</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000048374882863</v>
+        <v>1.000060120975632</v>
       </c>
       <c r="O21" t="n">
-        <v>0.00515619169544638</v>
+        <v>0.005748203061621094</v>
       </c>
       <c r="P21" t="n">
-        <v>95.23699127985813</v>
+        <v>94.80223515402628</v>
       </c>
       <c r="Q21" t="n">
-        <v>140.3353967999815</v>
+        <v>139.9006406741497</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_18_2_20</t>
+          <t>model_18_2_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999733876274716</v>
+        <v>0.9999674344715328</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9990212789297531</v>
+        <v>0.9989400190852257</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9997918832548451</v>
+        <v>0.9996709151721419</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9999349277226428</v>
+        <v>0.9998774408632327</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9998890601026578</v>
+        <v>0.9998735135838555</v>
       </c>
       <c r="G22" t="n">
-        <v>2.484148160717914e-05</v>
+        <v>3.039849136261971e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0009135931581857109</v>
+        <v>0.0009894456561571146</v>
       </c>
       <c r="I22" t="n">
-        <v>9.546310336113747e-05</v>
+        <v>0.0001449372279336253</v>
       </c>
       <c r="J22" t="n">
-        <v>5.857729400346349e-05</v>
+        <v>4.505334288757915e-05</v>
       </c>
       <c r="K22" t="n">
-        <v>7.702019868230049e-05</v>
+        <v>9.499528541060221e-05</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0003672955150094192</v>
+        <v>0.000349036811621329</v>
       </c>
       <c r="M22" t="n">
-        <v>0.004984122952654674</v>
+        <v>0.005513482689065026</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000049130533899</v>
+        <v>1.000060120975632</v>
       </c>
       <c r="O22" t="n">
-        <v>0.005196307385306033</v>
+        <v>0.005748203061621094</v>
       </c>
       <c r="P22" t="n">
-        <v>95.2059913133121</v>
+        <v>94.80223515402628</v>
       </c>
       <c r="Q22" t="n">
-        <v>140.3043968334355</v>
+        <v>139.9006406741497</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_18_2_21</t>
+          <t>model_18_2_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999730079866272</v>
+        <v>0.9999674344715328</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9990199370712612</v>
+        <v>0.9989400190852257</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9997881142092329</v>
+        <v>0.9996709151721419</v>
       </c>
       <c r="E23" t="n">
-        <v>0.99993412724266</v>
+        <v>0.9998774408632327</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9998872960137826</v>
+        <v>0.9998735135838555</v>
       </c>
       <c r="G23" t="n">
-        <v>2.519585967101415e-05</v>
+        <v>3.039849136261971e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0009148457241870995</v>
+        <v>0.0009894456561571146</v>
       </c>
       <c r="I23" t="n">
-        <v>9.719196372071338e-05</v>
+        <v>0.0001449372279336253</v>
       </c>
       <c r="J23" t="n">
-        <v>5.92978766110134e-05</v>
+        <v>4.505334288757915e-05</v>
       </c>
       <c r="K23" t="n">
-        <v>7.824492016586339e-05</v>
+        <v>9.499528541060221e-05</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0003678815407490018</v>
+        <v>0.000349036811621329</v>
       </c>
       <c r="M23" t="n">
-        <v>0.005019547755626411</v>
+        <v>0.005513482689065026</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000049831409304</v>
+        <v>1.000060120975632</v>
       </c>
       <c r="O23" t="n">
-        <v>0.005233240295479729</v>
+        <v>0.005748203061621094</v>
       </c>
       <c r="P23" t="n">
-        <v>95.1776617514294</v>
+        <v>94.80223515402628</v>
       </c>
       <c r="Q23" t="n">
-        <v>140.2760672715528</v>
+        <v>139.9006406741497</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_18_2_22</t>
+          <t>model_18_2_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999726572401481</v>
+        <v>0.9999674344715328</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9990187211411199</v>
+        <v>0.9989400190852257</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9997846817343454</v>
+        <v>0.9996709151721419</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9999333966071339</v>
+        <v>0.9998774408632327</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9998856883941724</v>
+        <v>0.9998735135838555</v>
       </c>
       <c r="G24" t="n">
-        <v>2.552326611336647e-05</v>
+        <v>3.039849136261971e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0009159807416008214</v>
+        <v>0.0009894456561571146</v>
       </c>
       <c r="I24" t="n">
-        <v>9.876643916581428e-05</v>
+        <v>0.0001449372279336253</v>
       </c>
       <c r="J24" t="n">
-        <v>5.995558606511581e-05</v>
+        <v>4.505334288757915e-05</v>
       </c>
       <c r="K24" t="n">
-        <v>7.936101261546504e-05</v>
+        <v>9.499528541060221e-05</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0003684037960481396</v>
+        <v>0.000349036811621329</v>
       </c>
       <c r="M24" t="n">
-        <v>0.005052055632449674</v>
+        <v>0.005513482689065026</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000050478941265</v>
+        <v>1.000060120975632</v>
       </c>
       <c r="O24" t="n">
-        <v>0.00526713209991994</v>
+        <v>0.005748203061621094</v>
       </c>
       <c r="P24" t="n">
-        <v>95.15184025035612</v>
+        <v>94.80223515402628</v>
       </c>
       <c r="Q24" t="n">
-        <v>140.2502457704796</v>
+        <v>139.9006406741497</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_18_2_23</t>
+          <t>model_18_2_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999723328225369</v>
+        <v>0.9999674344715328</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9990176177822339</v>
+        <v>0.9989400190852257</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9997815698015683</v>
+        <v>0.9996709151721419</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9999327123995098</v>
+        <v>0.9998774408632327</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9998842167673684</v>
+        <v>0.9998735135838555</v>
       </c>
       <c r="G25" t="n">
-        <v>2.582609571302888e-05</v>
+        <v>3.039849136261971e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0009170106786891273</v>
+        <v>0.0009894456561571146</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0001001938820183307</v>
+        <v>0.0001449372279336253</v>
       </c>
       <c r="J25" t="n">
-        <v>6.057150167139942e-05</v>
+        <v>4.505334288757915e-05</v>
       </c>
       <c r="K25" t="n">
-        <v>8.038269184486508e-05</v>
+        <v>9.499528541060221e-05</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0003688705672200136</v>
+        <v>0.000349036811621329</v>
       </c>
       <c r="M25" t="n">
-        <v>0.005081938184691828</v>
+        <v>0.005513482689065026</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000051077866086</v>
+        <v>1.000060120975632</v>
       </c>
       <c r="O25" t="n">
-        <v>0.005298286814276454</v>
+        <v>0.005748203061621094</v>
       </c>
       <c r="P25" t="n">
-        <v>95.12825023094832</v>
+        <v>94.80223515402628</v>
       </c>
       <c r="Q25" t="n">
-        <v>140.2266557510717</v>
+        <v>139.9006406741497</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_18_2_24</t>
+          <t>model_18_2_0</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9999720333069545</v>
+        <v>0.9999674344715411</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9990166147389313</v>
+        <v>0.998940018684324</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9997787391172611</v>
+        <v>0.9996709151721419</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9999320776499482</v>
+        <v>0.9998774408632327</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9998828701169975</v>
+        <v>0.9998735135838555</v>
       </c>
       <c r="G26" t="n">
-        <v>2.610568036205634e-05</v>
+        <v>3.039849135486675e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0009179469755834854</v>
+        <v>0.0009894460303812181</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0001014923162620618</v>
+        <v>0.0001449372279336253</v>
       </c>
       <c r="J26" t="n">
-        <v>6.114289571502536e-05</v>
+        <v>4.505334288757915e-05</v>
       </c>
       <c r="K26" t="n">
-        <v>8.13176059885436e-05</v>
+        <v>9.499528541060221e-05</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0003692909067924329</v>
+        <v>0.000349034716496808</v>
       </c>
       <c r="M26" t="n">
-        <v>0.005109371816775164</v>
+        <v>0.005513482688361934</v>
       </c>
       <c r="N26" t="n">
-        <v>1.00005163081793</v>
+        <v>1.000060120975616</v>
       </c>
       <c r="O26" t="n">
-        <v>0.005326888352873024</v>
+        <v>0.005748203060888071</v>
       </c>
       <c r="P26" t="n">
-        <v>95.10671525784493</v>
+        <v>94.80223515453636</v>
       </c>
       <c r="Q26" t="n">
-        <v>140.2051207779683</v>
+        <v>139.9006406746598</v>
       </c>
     </row>
   </sheetData>
